--- a/ParametricGraph/BenchParettox105.xlsx
+++ b/ParametricGraph/BenchParettox105.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
